--- a/Documents/2_작업문서/DB테이블 명세_멘토링_0731.xlsx
+++ b/Documents/2_작업문서/DB테이블 명세_멘토링_0731.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjaischool1\Desktop\Mid_project\project_Appian\Documents\2_작업문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjaischool1\Documents\1. 1차 핵심역량프로젝트 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EA7370-3254-4BAE-A788-92DDEAEDD85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98E0F71-C3AB-463D-B87F-EEF5A418B951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28590" yWindow="195" windowWidth="29010" windowHeight="15285" activeTab="2" xr2:uid="{10015527-1A9E-48C6-B0A4-EDE01B2D3F01}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="8070" windowHeight="15585" firstSheet="2" activeTab="8" xr2:uid="{10015527-1A9E-48C6-B0A4-EDE01B2D3F01}"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="farmAppliction" sheetId="8" r:id="rId4"/>
     <sheet name="farmImg" sheetId="9" r:id="rId5"/>
     <sheet name="content" sheetId="4" r:id="rId6"/>
-    <sheet name="contentImg" sheetId="10" r:id="rId7"/>
-    <sheet name="qanda" sheetId="7" r:id="rId8"/>
+    <sheet name="contentImg" sheetId="13" r:id="rId7"/>
+    <sheet name="comment" sheetId="12" r:id="rId8"/>
+    <sheet name="reply" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="132">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -288,18 +289,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">content_num </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>radioButton</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>content_image</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>텃밭 유형 (분양 면적)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -388,32 +381,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>머신러닝 전처리 전 데이터 저장 할 테이블</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">머신러닝 전처리 하고 난 후 처리된 데이터 저장할 테이블 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 100만건</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1건</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>하루1회</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>경기도 분당시</t>
-  </si>
-  <si>
     <t>서울 중구</t>
   </si>
   <si>
@@ -473,6 +440,136 @@
   </si>
   <si>
     <t>farm_num(FK)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_increment</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원ID(FK)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>분양신청정보(PK)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>farmImg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>텃밭이미지경로</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>farmImg_num (PK)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>텃밭이미지번호(PK)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentImg_num (PK)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>contentImg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">content_num(PK) </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물이미지경로</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">comment_num(PK) </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 번호(PK)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">comment_date </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 작성일</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>farm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>member</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">reply_num(PK) </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 번호(PK)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>reply</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">reply_date </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">comment_num(FK) </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 번호(FK)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectbox</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물이미지번호(PK)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>텃밭자랑하기
+농사정보
+장터</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 (회원가입 시 입력)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -576,7 +673,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -735,21 +832,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -767,6 +849,19 @@
         <color auto="1"/>
       </left>
       <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -779,26 +874,11 @@
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
         <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -818,7 +898,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -885,46 +965,67 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1244,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F95B99-ADB4-40D4-87B6-70796DF2F7CE}">
-  <dimension ref="B1:I7"/>
+  <dimension ref="B2:I8"/>
   <sheetViews>
     <sheetView zoomScale="104" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD21"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1261,146 +1362,150 @@
     <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
+    <row r="8" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1413,7 +1518,7 @@
   <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1426,19 +1531,19 @@
   <sheetData>
     <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
@@ -1446,13 +1551,13 @@
         <v>24</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
@@ -1463,10 +1568,10 @@
         <v>18</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
@@ -1474,13 +1579,13 @@
         <v>26</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
@@ -1488,7 +1593,9 @@
         <v>53</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="D7" s="36" t="s">
+        <v>118</v>
+      </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
@@ -1507,16 +1614,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3AE791-CBEF-4ECB-BBB5-161C161B7909}">
   <dimension ref="B2:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView zoomScale="86" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="1"/>
     <col min="2" max="2" width="8.5" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.19921875" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.5" style="1" customWidth="1"/>
@@ -1531,7 +1638,7 @@
   <sheetData>
     <row r="2" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.4">
@@ -1540,19 +1647,19 @@
         <v>71</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>41</v>
@@ -1581,13 +1688,13 @@
         <v>24</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>27</v>
@@ -1624,43 +1731,43 @@
       <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>67</v>
+      <c r="C5" s="28" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="21" t="s">
+      <c r="H5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>18</v>
+      <c r="I5" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="O5" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="31" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1668,43 +1775,43 @@
       <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="E6" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="21" t="s">
+      <c r="H6" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="L6" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="22" t="s">
+      <c r="O6" s="31" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1712,47 +1819,47 @@
       <c r="B7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="22" t="s">
+        <v>63</v>
+      </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13" t="s">
         <v>52</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="25">
+      <c r="J7" s="41">
         <v>45125</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
       <c r="N7" s="13"/>
       <c r="O7" s="12"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="31"/>
+        <v>72</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="27"/>
     </row>
     <row r="9" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="14"/>
@@ -1762,7 +1869,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
@@ -1777,30 +1884,30 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
       <c r="H14" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.4">
       <c r="H15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
@@ -1808,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J16" s="1">
         <v>11</v>
@@ -1820,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="8:15" x14ac:dyDescent="0.4">
@@ -1828,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J17" s="1">
         <v>11</v>
@@ -1840,7 +1947,7 @@
         <v>2</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="8:15" x14ac:dyDescent="0.4">
@@ -1848,7 +1955,7 @@
         <v>3</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J18" s="1">
         <v>22</v>
@@ -1860,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="8:15" x14ac:dyDescent="0.4">
@@ -1887,7 +1994,7 @@
   <dimension ref="B1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1901,12 +2008,14 @@
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" s="11"/>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="D2" s="3" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
@@ -1914,68 +2023,74 @@
         <v>24</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="32">
-        <v>1</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="33">
-        <v>11</v>
+      <c r="C4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="34">
-        <v>2</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="35">
-        <v>11</v>
+      <c r="C5" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="24">
-        <v>3</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="12">
-        <v>22</v>
+      <c r="C6" s="35">
+        <v>1</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33">
+        <v>2</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="27">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="E8" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1985,34 +2100,107 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610EC661-EC4C-451A-9EB0-417324CA0524}">
-  <dimension ref="B16:D17"/>
+  <dimension ref="B1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.09765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17" s="1">
+    <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B2" s="11"/>
+      <c r="C2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="35">
         <v>1</v>
       </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>83</v>
+      <c r="D6" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" s="32"/>
+      <c r="C7" s="33">
+        <v>2</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H20" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2023,160 +2211,143 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F4FD11-30BD-480C-9B77-8F7FC511240E}">
-  <dimension ref="B1:I16"/>
+  <dimension ref="B1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" customWidth="1"/>
+    <col min="7" max="7" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.3984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.19921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="11"/>
       <c r="C2" s="3" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="20" t="s">
         <v>18</v>
       </c>
+      <c r="D4" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>65</v>
+      </c>
       <c r="F4" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>21</v>
+      <c r="E5" s="39" t="s">
+        <v>128</v>
       </c>
       <c r="F5" s="21" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="6"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="18">
+      <c r="G6" s="13"/>
+      <c r="H6" s="18">
         <v>45125</v>
       </c>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="2:8" ht="57.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="E7" s="40" t="s">
+        <v>130</v>
+      </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="D14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" t="s">
-        <v>88</v>
-      </c>
-      <c r="I14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="D16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" t="s">
-        <v>90</v>
-      </c>
+      <c r="H7" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2185,26 +2356,365 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{004B7B7F-113C-4B45-8BEF-4E00C482705B}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FF570B-564D-4750-9AB2-8B3840FCA359}">
+  <dimension ref="B1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B2" s="11"/>
+      <c r="C2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="35">
+        <v>1</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" s="32"/>
+      <c r="C7" s="33">
+        <v>2</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB483002-1D49-4724-B8D1-B3BD990D8674}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD6058B-F2D5-44A1-918E-6E9EFCB968CF}">
+  <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B2" s="11"/>
+      <c r="C2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="18">
+        <v>45125</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB483002-1D49-4724-B8D1-B3BD990D8674}">
+  <dimension ref="B1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B2" s="11"/>
+      <c r="C2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="18">
+        <v>45125</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/2_작업문서/DB테이블 명세_멘토링_0731.xlsx
+++ b/Documents/2_작업문서/DB테이블 명세_멘토링_0731.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjaischool1\Documents\1. 1차 핵심역량프로젝트 문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjaischool1\Desktop\Mid_project\project_Appian\Documents\2_작업문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98E0F71-C3AB-463D-B87F-EEF5A418B951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005EC055-3944-4E1F-ABCE-B7832D3ADE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="8070" windowHeight="15585" firstSheet="2" activeTab="8" xr2:uid="{10015527-1A9E-48C6-B0A4-EDE01B2D3F01}"/>
+    <workbookView xWindow="28935" yWindow="2700" windowWidth="29010" windowHeight="14145" activeTab="2" xr2:uid="{10015527-1A9E-48C6-B0A4-EDE01B2D3F01}"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -44,11 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="132">
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="130">
   <si>
     <t>user_pw</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -157,46 +153,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">_startDate </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>_endDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">lental_startDate </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lental_endDate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>텃밭 주소</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청 시작일</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청 마감일</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>임대 시작일</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>임대 마감일</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>텃밭 이름</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>farm_title</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -205,10 +161,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>lental_type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>분양희망가</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -221,30 +173,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>이미지파일</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>farm_image</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>file</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>calender/field</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>textarea</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>file/path</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -253,10 +185,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>0 : 소형(~5평)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>value_ex</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -293,18 +221,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>텃밭 유형 (분양 면적)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>memberDB</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>분양 면적</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -313,78 +233,38 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>AAA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>유저 ID(FK)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>텃밭 내놓기 새 글 등록 시, 새로 입력받는 정보</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>텃밭 번호(PK)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>검증 확실히!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>텃밭 번호(FK)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물 번호(pk)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 중구</t>
   </si>
   <si>
     <t>BBB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 ID(FK)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>텃밭 내놓기 새 글 등록 시, 새로 입력받는 정보</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>텃밭 번호(PK)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>검증 확실히!</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;분양신청정보&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDX (PK)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>텃밭 번호(FK)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자ID(FK)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;farmImgDB&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>텃밭 번호(fk)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>idx(pk)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지경로</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>경로</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시물 번호(pk)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 중구</t>
-  </si>
-  <si>
-    <t>BBB</t>
   </si>
   <si>
     <t>지역명</t>
@@ -404,14 +284,6 @@
   </si>
   <si>
     <t>분양 선호 지역 정보</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1: 중형(5~30평)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2: 대형(30평~)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -570,6 +442,122 @@
   </si>
   <si>
     <t>회원정보 (회원가입 시 입력)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>farm_type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sidos</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigungus</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lantitude</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Longitude</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lental_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lental_startDate </t>
+  </si>
+  <si>
+    <t>lental_endDate</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">app_startDate </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_endDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>farm_sector</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영주체</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>텃밭이름</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>몇 명 분양</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>텃밭 시/도</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>텃밭 시/군/구</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>텃밭주소</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>분양면적</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>위도</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>경도</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>분양 유형</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청시작일</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청마감일</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>임대시작일</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>임대마감일</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>소형</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>중형</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>대형</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -898,7 +886,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -968,18 +956,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1025,7 +1001,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1364,133 +1358,133 @@
   <sheetData>
     <row r="2" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>4</v>
-      </c>
       <c r="H4" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="5" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -1499,11 +1493,11 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="I8" s="8"/>
     </row>
@@ -1531,70 +1525,70 @@
   <sheetData>
     <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" s="5" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="36" t="s">
-        <v>118</v>
+      <c r="D7" s="32" t="s">
+        <v>86</v>
       </c>
       <c r="E7" s="6"/>
     </row>
@@ -1612,377 +1606,346 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3AE791-CBEF-4ECB-BBB5-161C161B7909}">
-  <dimension ref="B2:O20"/>
+  <dimension ref="B2:T11"/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="1"/>
-    <col min="2" max="2" width="8.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.19921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.796875" style="1"/>
+    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.09765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B3" s="11"/>
       <c r="C3" s="3" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="N4" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="O4" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="P4" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q4" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="R4" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="S4" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="T4" s="41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="R5" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="S5" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="T5" s="44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="L6" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="44"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B7" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="O5" s="31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="22" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="G7" s="13"/>
-      <c r="H7" s="13" t="s">
-        <v>52</v>
-      </c>
+      <c r="H7" s="13"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="41">
+      <c r="J7" s="13"/>
+      <c r="K7" s="38">
         <v>45125</v>
       </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="12"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="23"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="27"/>
-    </row>
-    <row r="9" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="12"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B8" s="5"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="12"/>
+    </row>
+    <row r="9" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="15" t="s">
-        <v>92</v>
-      </c>
+      <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O9" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="16"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B11" s="17"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="H14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="H15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="1">
-        <v>11</v>
-      </c>
-      <c r="M16" s="1">
-        <v>1</v>
-      </c>
-      <c r="N16" s="1">
-        <v>1</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="8:15" x14ac:dyDescent="0.4">
-      <c r="H17" s="1">
-        <v>2</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J17" s="1">
-        <v>11</v>
-      </c>
-      <c r="M17" s="1">
-        <v>1</v>
-      </c>
-      <c r="N17" s="1">
-        <v>2</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="8:15" x14ac:dyDescent="0.4">
-      <c r="H18" s="1">
-        <v>3</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J18" s="1">
-        <v>22</v>
-      </c>
-      <c r="M18" s="1">
-        <v>1</v>
-      </c>
-      <c r="N18" s="1">
-        <v>3</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="8:15" x14ac:dyDescent="0.4">
-      <c r="H19" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="8:15" x14ac:dyDescent="0.4">
-      <c r="H20" s="1">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="K7:N7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2009,80 +1972,80 @@
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" s="11"/>
       <c r="C2" s="3" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>100</v>
+        <v>25</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="35">
+        <v>35</v>
+      </c>
+      <c r="C6" s="31">
         <v>1</v>
       </c>
-      <c r="D6" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>117</v>
+      <c r="D6" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="32"/>
-      <c r="C7" s="33">
+      <c r="B7" s="28"/>
+      <c r="C7" s="29">
         <v>2</v>
       </c>
-      <c r="D7" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="27">
+      <c r="D7" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="23">
         <v>11</v>
       </c>
     </row>
@@ -2117,78 +2080,78 @@
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" s="11"/>
       <c r="C2" s="3" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>65</v>
+        <v>24</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>50</v>
+        <v>25</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="35">
+        <v>35</v>
+      </c>
+      <c r="C6" s="31">
         <v>1</v>
       </c>
-      <c r="D6" s="37" t="s">
-        <v>117</v>
+      <c r="D6" s="33" t="s">
+        <v>85</v>
       </c>
       <c r="E6" s="12">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="32"/>
-      <c r="C7" s="33">
+      <c r="B7" s="28"/>
+      <c r="C7" s="29">
         <v>2</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="27">
+      <c r="D7" s="30"/>
+      <c r="E7" s="23">
         <v>11</v>
       </c>
     </row>
@@ -2200,7 +2163,7 @@
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H20" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2236,100 +2199,100 @@
     <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="11"/>
       <c r="C2" s="3" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>128</v>
+        <v>22</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>96</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="22" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="13"/>
@@ -2342,8 +2305,8 @@
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="40" t="s">
-        <v>130</v>
+      <c r="E7" s="36" t="s">
+        <v>98</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -2374,78 +2337,78 @@
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" s="11"/>
       <c r="C2" s="3" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>65</v>
+        <v>17</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>100</v>
+        <v>25</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>50</v>
+        <v>68</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="35">
+        <v>35</v>
+      </c>
+      <c r="C6" s="31">
         <v>1</v>
       </c>
-      <c r="D6" s="37" t="s">
-        <v>119</v>
+      <c r="D6" s="33" t="s">
+        <v>87</v>
       </c>
       <c r="E6" s="12">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="32"/>
-      <c r="C7" s="33">
+      <c r="B7" s="28"/>
+      <c r="C7" s="29">
         <v>2</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="27">
+      <c r="D7" s="30"/>
+      <c r="E7" s="23">
         <v>11</v>
       </c>
     </row>
@@ -2457,7 +2420,7 @@
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H20" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2488,91 +2451,91 @@
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="11"/>
       <c r="C2" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>19</v>
-      </c>
       <c r="E4" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="22" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="18">
@@ -2597,7 +2560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB483002-1D49-4724-B8D1-B3BD990D8674}">
   <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -2615,91 +2578,91 @@
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="11"/>
       <c r="C2" s="3" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="22" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="18">

--- a/Documents/2_작업문서/DB테이블 명세_멘토링_0731.xlsx
+++ b/Documents/2_작업문서/DB테이블 명세_멘토링_0731.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjaischool1\Desktop\Mid_project\project_Appian\Documents\2_작업문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005EC055-3944-4E1F-ABCE-B7832D3ADE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D20D3D-8363-4E42-BBD6-2E26302554F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28935" yWindow="2700" windowWidth="29010" windowHeight="14145" activeTab="2" xr2:uid="{10015527-1A9E-48C6-B0A4-EDE01B2D3F01}"/>
+    <workbookView xWindow="28590" yWindow="690" windowWidth="29010" windowHeight="14145" xr2:uid="{10015527-1A9E-48C6-B0A4-EDE01B2D3F01}"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -1001,25 +1001,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1341,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F95B99-ADB4-40D4-87B6-70796DF2F7CE}">
   <dimension ref="B2:I8"/>
   <sheetViews>
-    <sheetView zoomScale="104" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1608,7 +1608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3AE791-CBEF-4ECB-BBB5-161C161B7909}">
   <dimension ref="B2:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+    <sheetView zoomScale="86" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -1698,58 +1698,58 @@
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="K4" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="40" t="s">
+      <c r="L4" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="40" t="s">
+      <c r="M4" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="N4" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="O4" s="40" t="s">
+      <c r="O4" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="P4" s="40" t="s">
+      <c r="P4" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="Q4" s="40" t="s">
+      <c r="Q4" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="R4" s="40" t="s">
+      <c r="R4" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="S4" s="40" t="s">
+      <c r="S4" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="T4" s="41" t="s">
+      <c r="T4" s="39" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1757,58 +1757,58 @@
       <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="43" t="s">
+      <c r="L5" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="43" t="s">
+      <c r="M5" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="43" t="s">
+      <c r="N5" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="43" t="s">
+      <c r="O5" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="P5" s="43" t="s">
+      <c r="P5" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="43" t="s">
+      <c r="Q5" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="R5" s="43" t="s">
+      <c r="R5" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="S5" s="43" t="s">
+      <c r="S5" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="T5" s="44" t="s">
+      <c r="T5" s="42" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1816,50 +1816,50 @@
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="43" t="s">
+      <c r="J6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="43" t="s">
+      <c r="K6" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="43" t="s">
+      <c r="L6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="43" t="s">
+      <c r="M6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="43" t="s">
+      <c r="O6" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="44"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="42"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B7" s="5" t="s">
@@ -1877,12 +1877,12 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
-      <c r="K7" s="38">
+      <c r="K7" s="43">
         <v>45125</v>
       </c>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
       <c r="O7" s="13" t="s">
         <v>127</v>
       </c>

--- a/Documents/2_작업문서/DB테이블 명세_멘토링_0731.xlsx
+++ b/Documents/2_작업문서/DB테이블 명세_멘토링_0731.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjaischool1\Desktop\Mid_project\project_Appian\Documents\2_작업문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjaischool\Desktop\GAI\project01\project_Appian\Documents\2_작업문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D20D3D-8363-4E42-BBD6-2E26302554F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ADF594-6601-424E-B0CE-81CE399D4AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28590" yWindow="690" windowWidth="29010" windowHeight="14145" xr2:uid="{10015527-1A9E-48C6-B0A4-EDE01B2D3F01}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{10015527-1A9E-48C6-B0A4-EDE01B2D3F01}"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="133">
   <si>
     <t>user_pw</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -465,10 +465,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Longitude</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>lental_type</t>
   </si>
   <si>
@@ -558,6 +554,22 @@
   </si>
   <si>
     <t>대형</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>longitude</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1341,7 +1353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F95B99-ADB4-40D4-87B6-70796DF2F7CE}">
   <dimension ref="B2:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+    <sheetView zoomScale="104" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -1608,8 +1620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3AE791-CBEF-4ECB-BBB5-161C161B7909}">
   <dimension ref="B2:T11"/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1646,49 +1658,49 @@
         <v>47</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>31</v>
@@ -1711,7 +1723,7 @@
         <v>27</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H4" s="38" t="s">
         <v>102</v>
@@ -1732,25 +1744,25 @@
         <v>104</v>
       </c>
       <c r="N4" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="O4" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="P4" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q4" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="R4" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="P4" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q4" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="R4" s="38" t="s">
+      <c r="S4" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="S4" s="38" t="s">
+      <c r="T4" s="39" t="s">
         <v>108</v>
-      </c>
-      <c r="T4" s="39" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.4">
@@ -1758,58 +1770,58 @@
         <v>24</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="I5" s="41" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="J5" s="41" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="K5" s="41" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="L5" s="41" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="M5" s="41" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="N5" s="41" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="O5" s="41" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="P5" s="41" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="Q5" s="41" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="R5" s="41" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="S5" s="41" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="T5" s="42" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.4">
@@ -1884,7 +1896,7 @@
       <c r="M7" s="44"/>
       <c r="N7" s="44"/>
       <c r="O7" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
@@ -1909,7 +1921,7 @@
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
       <c r="O8" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
@@ -1932,7 +1944,7 @@
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
       <c r="O9" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>

--- a/Documents/2_작업문서/DB테이블 명세_멘토링_0731.xlsx
+++ b/Documents/2_작업문서/DB테이블 명세_멘토링_0731.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjaischool\Desktop\GAI\project01\project_Appian\Documents\2_작업문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjaischool1\Desktop\Mid_project\project_Appian\Documents\2_작업문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ADF594-6601-424E-B0CE-81CE399D4AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F02F43E-FCB8-4AEB-9E4B-92C3BEA40B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{10015527-1A9E-48C6-B0A4-EDE01B2D3F01}"/>
+    <workbookView xWindow="28590" yWindow="1335" windowWidth="29010" windowHeight="14145" activeTab="2" xr2:uid="{10015527-1A9E-48C6-B0A4-EDE01B2D3F01}"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="134">
   <si>
     <t>user_pw</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -570,6 +570,10 @@
   </si>
   <si>
     <t>longitude</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 파일만 수정했습니다!</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1618,10 +1622,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3AE791-CBEF-4ECB-BBB5-161C161B7909}">
-  <dimension ref="B2:T11"/>
+  <dimension ref="B2:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1954,6 +1958,11 @@
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B11" s="17"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documents/2_작업문서/DB테이블 명세_멘토링_0731.xlsx
+++ b/Documents/2_작업문서/DB테이블 명세_멘토링_0731.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjaischool1\Desktop\Mid_project\project_Appian\Documents\2_작업문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/c/Desktop/GAI/project01/project_Appian/Documents/2_작업문서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F02F43E-FCB8-4AEB-9E4B-92C3BEA40B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E71043-691C-F74B-AA74-A20CBCC571A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28590" yWindow="1335" windowWidth="29010" windowHeight="14145" activeTab="2" xr2:uid="{10015527-1A9E-48C6-B0A4-EDE01B2D3F01}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{10015527-1A9E-48C6-B0A4-EDE01B2D3F01}"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="139">
   <si>
     <t>user_pw</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -209,14 +209,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>게시물 작성일</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">content_date </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>radioButton</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -419,28 +411,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>카테고리</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectbox</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>게시물이미지번호(PK)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>텃밭자랑하기
-농사정보
-장터</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>회원정보 (회원가입 시 입력)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -574,6 +548,50 @@
   </si>
   <si>
     <t>이 파일만 수정했습니다!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>순번</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제기능</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지파일</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동순번</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물 보여질때</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>호박이요</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>호박입니다. 호박이에요. 호박쓰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>건식님</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -581,7 +599,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -875,15 +893,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -902,7 +916,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1008,12 +1022,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1036,6 +1044,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1361,10 +1372,10 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="21.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.796875" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
@@ -1372,12 +1383,12 @@
     <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" ht="18" thickBot="1">
       <c r="B2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -1401,12 +1412,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:9">
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>0</v>
@@ -1427,33 +1438,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9">
       <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I5" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:9">
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
@@ -1476,10 +1487,10 @@
         <v>21</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
@@ -1503,7 +1514,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:9" ht="18" thickBot="1">
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1513,7 +1524,7 @@
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I8" s="8"/>
     </row>
@@ -1531,46 +1542,46 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" ht="18" thickBot="1">
       <c r="B2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
@@ -1578,37 +1589,37 @@
         <v>17</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5">
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1624,283 +1635,283 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3AE791-CBEF-4ECB-BBB5-161C161B7909}">
   <dimension ref="B2:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+    <sheetView zoomScale="86" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
     <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.09765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.796875" style="1"/>
+    <col min="15" max="15" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:20" ht="18" thickBot="1">
       <c r="B2" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20">
       <c r="B3" s="11"/>
       <c r="C3" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:20">
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="38" t="s">
+      <c r="C4" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="O4" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="P4" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q4" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="R4" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="S4" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="38" t="s">
+      <c r="T4" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="N4" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="O4" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="P4" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q4" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="R4" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="S4" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="T4" s="39" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="2:20">
       <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="I5" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="J5" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="K5" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="L5" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="M5" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="N5" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="O5" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="P5" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q5" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="R5" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="S5" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="T5" s="42" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="C5" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="N5" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="O5" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="P5" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q5" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="R5" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="S5" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="T5" s="40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20">
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="41" t="s">
+      <c r="J6" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="41" t="s">
+      <c r="K6" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="41" t="s">
+      <c r="L6" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="41" t="s">
+      <c r="M6" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="41" t="s">
+      <c r="N6" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="42"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="O6" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="40"/>
+    </row>
+    <row r="7" spans="2:20">
       <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
-      <c r="K7" s="43">
+      <c r="K7" s="41">
         <v>45125</v>
       </c>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
       <c r="O7" s="13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
@@ -1908,24 +1919,24 @@
       <c r="S7" s="13"/>
       <c r="T7" s="12"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:20">
       <c r="B8" s="5"/>
       <c r="C8" s="13"/>
       <c r="D8" s="22"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="37"/>
+      <c r="K8" s="35"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
       <c r="O8" s="13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
@@ -1933,7 +1944,7 @@
       <c r="S8" s="13"/>
       <c r="T8" s="12"/>
     </row>
-    <row r="9" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:20" ht="18" thickBot="1">
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -1948,7 +1959,7 @@
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
       <c r="O9" s="15" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
@@ -1956,12 +1967,12 @@
       <c r="S9" s="15"/>
       <c r="T9" s="16"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:20">
       <c r="B11" s="17"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:20">
       <c r="B12" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1981,42 +1992,42 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" ht="18" thickBot="1"/>
+    <row r="2" spans="2:5">
       <c r="B2" s="11"/>
       <c r="C2" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
@@ -2024,27 +2035,27 @@
         <v>17</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5">
       <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="5" t="s">
         <v>35</v>
       </c>
@@ -2052,25 +2063,25 @@
         <v>1</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" s="28"/>
       <c r="C7" s="29">
         <v>2</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" s="23">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:5" ht="18" thickBot="1">
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -2090,41 +2101,41 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" ht="18" thickBot="1"/>
+    <row r="2" spans="2:5">
       <c r="B2" s="11"/>
       <c r="C2" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
@@ -2135,24 +2146,24 @@
         <v>17</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5">
       <c r="B6" s="5" t="s">
         <v>35</v>
       </c>
@@ -2160,13 +2171,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E6" s="12">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5">
       <c r="B7" s="28"/>
       <c r="C7" s="29">
         <v>2</v>
@@ -2176,15 +2187,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:5" ht="18" thickBot="1">
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="8:8">
       <c r="H20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2195,73 +2206,62 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F4FD11-30BD-480C-9B77-8F7FC511240E}">
-  <dimension ref="B1:H7"/>
+  <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.59765625" customWidth="1"/>
-    <col min="6" max="6" width="13.8984375" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" ht="18" thickBot="1"/>
+    <row r="2" spans="2:7">
       <c r="B2" s="11"/>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G2" s="43" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="2:7">
       <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
@@ -2269,69 +2269,98 @@
         <v>17</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="35" t="s">
-        <v>96</v>
+      <c r="E5" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="F5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="6"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="22" t="s">
+        <v>42</v>
+      </c>
       <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="18">
-        <v>45125</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="57.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="2:7" ht="57.5" customHeight="1" thickBot="1">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="36" t="s">
-        <v>98</v>
-      </c>
+      <c r="E7" s="15"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="C8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="D9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="G11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2347,41 +2376,41 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" ht="18" thickBot="1"/>
+    <row r="2" spans="2:5">
       <c r="B2" s="11"/>
       <c r="C2" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
@@ -2392,24 +2421,24 @@
         <v>17</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5">
       <c r="B6" s="5" t="s">
         <v>35</v>
       </c>
@@ -2417,13 +2446,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E6" s="12">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5">
       <c r="B7" s="28"/>
       <c r="C7" s="29">
         <v>2</v>
@@ -2433,15 +2462,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:5" ht="18" thickBot="1">
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="8:8">
       <c r="H20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2458,56 +2487,56 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" ht="18" thickBot="1"/>
+    <row r="2" spans="2:7">
       <c r="B2" s="11"/>
       <c r="C2" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="G3" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
       <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
@@ -2521,24 +2550,24 @@
         <v>17</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F5" s="21" t="s">
         <v>22</v>
@@ -2547,23 +2576,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7">
       <c r="B6" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="18">
         <v>45125</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" ht="18" thickBot="1">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -2585,56 +2614,56 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" ht="18" thickBot="1"/>
+    <row r="2" spans="2:7">
       <c r="B2" s="11"/>
       <c r="C2" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>90</v>
-      </c>
       <c r="G3" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
       <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
@@ -2648,24 +2677,24 @@
         <v>17</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F5" s="21" t="s">
         <v>22</v>
@@ -2674,23 +2703,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7">
       <c r="B6" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="18">
         <v>45125</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" ht="18" thickBot="1">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>

--- a/Documents/2_작업문서/DB테이블 명세_멘토링_0731.xlsx
+++ b/Documents/2_작업문서/DB테이블 명세_멘토링_0731.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/c/Desktop/GAI/project01/project_Appian/Documents/2_작업문서/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjaischool\Desktop\GAI\project01\project_Appian\Documents\2_작업문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E71043-691C-F74B-AA74-A20CBCC571A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAAB21B-3247-47B1-B038-AAC9282BC026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{10015527-1A9E-48C6-B0A4-EDE01B2D3F01}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{10015527-1A9E-48C6-B0A4-EDE01B2D3F01}"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="140">
   <si>
     <t>user_pw</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -592,6 +592,10 @@
   </si>
   <si>
     <t>건식님</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_img</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +603,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -916,7 +920,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1040,13 +1044,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1372,10 +1379,10 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.796875" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
@@ -1383,12 +1390,12 @@
     <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18" thickBot="1">
+    <row r="2" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -1412,7 +1419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
@@ -1438,7 +1445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
@@ -1464,7 +1471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
@@ -1490,7 +1497,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
@@ -1514,7 +1521,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="18" thickBot="1">
+    <row r="8" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1542,20 +1549,20 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18" thickBot="1">
+    <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
         <v>55</v>
@@ -1567,7 +1574,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
@@ -1581,7 +1588,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
@@ -1595,7 +1602,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
@@ -1609,7 +1616,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
@@ -1619,7 +1626,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1639,32 +1646,32 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.796875" style="1"/>
     <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.83203125" style="1"/>
+    <col min="15" max="15" width="17.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="18" thickBot="1">
+    <row r="2" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B3" s="11"/>
       <c r="C3" s="3" t="s">
         <v>47</v>
@@ -1721,7 +1728,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
@@ -1780,7 +1787,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
@@ -1839,7 +1846,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="2:20">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
@@ -1888,7 +1895,7 @@
       <c r="S6" s="39"/>
       <c r="T6" s="40"/>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
@@ -1904,12 +1911,12 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
-      <c r="K7" s="41">
+      <c r="K7" s="42">
         <v>45125</v>
       </c>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
       <c r="O7" s="13" t="s">
         <v>120</v>
       </c>
@@ -1919,7 +1926,7 @@
       <c r="S7" s="13"/>
       <c r="T7" s="12"/>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B8" s="5"/>
       <c r="C8" s="13"/>
       <c r="D8" s="22"/>
@@ -1944,7 +1951,7 @@
       <c r="S8" s="13"/>
       <c r="T8" s="12"/>
     </row>
-    <row r="9" spans="2:20" ht="18" thickBot="1">
+    <row r="9" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -1967,10 +1974,10 @@
       <c r="S9" s="15"/>
       <c r="T9" s="16"/>
     </row>
-    <row r="11" spans="2:20">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B11" s="17"/>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>127</v>
       </c>
@@ -1992,16 +1999,16 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18" thickBot="1"/>
-    <row r="2" spans="2:5">
+    <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" s="11"/>
       <c r="C2" s="3" t="s">
         <v>68</v>
@@ -2013,7 +2020,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
@@ -2027,7 +2034,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
@@ -2041,7 +2048,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
@@ -2055,7 +2062,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>35</v>
       </c>
@@ -2069,7 +2076,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" s="28"/>
       <c r="C7" s="29">
         <v>2</v>
@@ -2081,7 +2088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="18" thickBot="1">
+    <row r="8" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -2101,15 +2108,15 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18" thickBot="1"/>
-    <row r="2" spans="2:5">
+    <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" s="11"/>
       <c r="C2" s="3" t="s">
         <v>72</v>
@@ -2121,7 +2128,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
@@ -2135,7 +2142,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
@@ -2149,7 +2156,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
@@ -2163,7 +2170,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>35</v>
       </c>
@@ -2177,7 +2184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" s="28"/>
       <c r="C7" s="29">
         <v>2</v>
@@ -2187,13 +2194,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="18" thickBot="1">
+    <row r="8" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
     </row>
-    <row r="20" spans="8:8">
+    <row r="20" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H20" t="s">
         <v>73</v>
       </c>
@@ -2209,24 +2216,24 @@
   <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.796875" customWidth="1"/>
+    <col min="5" max="5" width="15.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" thickBot="1"/>
-    <row r="2" spans="2:7">
+    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="11"/>
       <c r="C2" s="3" t="s">
         <v>50</v>
@@ -2240,11 +2247,11 @@
       <c r="F2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="41" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
@@ -2260,8 +2267,11 @@
       <c r="F3" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="2:7">
+      <c r="G3" s="44" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
@@ -2278,7 +2288,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>39</v>
       </c>
@@ -2295,7 +2305,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>35</v>
       </c>
@@ -2306,14 +2316,14 @@
       </c>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="2:7" ht="57.5" customHeight="1" thickBot="1">
+    <row r="7" spans="2:7" ht="57.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>128</v>
       </c>
@@ -2324,7 +2334,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
         <v>136</v>
       </c>
@@ -2335,17 +2345,17 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G11" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="3:7">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
         <v>134</v>
       </c>
@@ -2376,15 +2386,15 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18" thickBot="1"/>
-    <row r="2" spans="2:5">
+    <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" s="11"/>
       <c r="C2" s="3" t="s">
         <v>92</v>
@@ -2396,7 +2406,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
@@ -2410,7 +2420,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
@@ -2424,7 +2434,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
@@ -2438,7 +2448,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>35</v>
       </c>
@@ -2452,7 +2462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" s="28"/>
       <c r="C7" s="29">
         <v>2</v>
@@ -2462,13 +2472,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="18" thickBot="1">
+    <row r="8" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
     </row>
-    <row r="20" spans="8:8">
+    <row r="20" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H20" t="s">
         <v>73</v>
       </c>
@@ -2487,18 +2497,18 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" thickBot="1"/>
-    <row r="2" spans="2:7">
+    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="11"/>
       <c r="C2" s="3" t="s">
         <v>79</v>
@@ -2516,7 +2526,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
@@ -2536,7 +2546,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
@@ -2556,7 +2566,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>39</v>
       </c>
@@ -2576,7 +2586,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>35</v>
       </c>
@@ -2592,7 +2602,7 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="18" thickBot="1">
+    <row r="7" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -2614,18 +2624,18 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" thickBot="1"/>
-    <row r="2" spans="2:7">
+    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="11"/>
       <c r="C2" s="3" t="s">
         <v>87</v>
@@ -2643,7 +2653,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
@@ -2663,7 +2673,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
@@ -2683,7 +2693,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>39</v>
       </c>
@@ -2703,7 +2713,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>35</v>
       </c>
@@ -2719,7 +2729,7 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="18" thickBot="1">
+    <row r="7" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>

--- a/Documents/2_작업문서/DB테이블 명세_멘토링_0731.xlsx
+++ b/Documents/2_작업문서/DB테이블 명세_멘토링_0731.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjaischool\Desktop\GAI\project01\project_Appian\Documents\2_작업문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAAB21B-3247-47B1-B038-AAC9282BC026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2D945B-CEC6-490F-9CE7-C749BDF80A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{10015527-1A9E-48C6-B0A4-EDE01B2D3F01}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{10015527-1A9E-48C6-B0A4-EDE01B2D3F01}"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="138">
   <si>
     <t>user_pw</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -427,14 +427,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>sidos</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sigungus</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>lantitude</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -475,14 +467,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>텃밭 시/도</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>텃밭 시/군/구</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>텃밭주소</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -596,6 +580,14 @@
   </si>
   <si>
     <t>content_img</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>farm_img</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -699,7 +691,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -905,6 +897,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -920,7 +951,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1032,28 +1063,37 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1640,10 +1680,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3AE791-CBEF-4ECB-BBB5-161C161B7909}">
-  <dimension ref="B2:T12"/>
+  <dimension ref="B2:S12"/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1655,23 +1695,21 @@
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.796875" style="1"/>
+    <col min="8" max="8" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B3" s="11"/>
       <c r="C3" s="3" t="s">
         <v>47</v>
@@ -1680,55 +1718,52 @@
         <v>45</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="R3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="T3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="S3" s="43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
@@ -1745,157 +1780,146 @@
         <v>27</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H4" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="L4" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="M4" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="J4" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="36" t="s">
+      <c r="N4" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="O4" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="P4" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="N4" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="O4" s="36" t="s">
+      <c r="Q4" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="P4" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q4" s="36" t="s">
-        <v>104</v>
-      </c>
       <c r="R4" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="S4" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="S4" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="T4" s="37" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="J5" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="K5" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="L5" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="N5" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="O5" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="P5" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q5" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="R5" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="S5" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="T5" s="40" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="C5" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="N5" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="O5" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="P5" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q5" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="R5" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="S5" s="45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="K6" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="39" t="s">
+      <c r="L6" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="39" t="s">
+      <c r="M6" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="40"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="45"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
@@ -1909,24 +1933,23 @@
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="42">
+      <c r="I7" s="41">
         <v>45125</v>
       </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="13" t="s">
-        <v>120</v>
-      </c>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="12"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="S7" s="46"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B8" s="5"/>
       <c r="C8" s="13"/>
       <c r="D8" s="22"/>
@@ -1936,22 +1959,21 @@
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="I8" s="35"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="35"/>
+      <c r="K8" s="13"/>
       <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
+      <c r="M8" s="13" t="s">
+        <v>117</v>
+      </c>
       <c r="N8" s="13"/>
-      <c r="O8" s="13" t="s">
-        <v>121</v>
-      </c>
+      <c r="O8" s="13"/>
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="12"/>
-    </row>
-    <row r="9" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="S8" s="46"/>
+    </row>
+    <row r="9" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -1963,28 +1985,27 @@
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+      <c r="M9" s="15" t="s">
+        <v>118</v>
+      </c>
       <c r="N9" s="15"/>
-      <c r="O9" s="15" t="s">
-        <v>122</v>
-      </c>
+      <c r="O9" s="15"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="16"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="S9" s="47"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B11" s="17"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="I7:L7"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2215,7 +2236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F4FD11-30BD-480C-9B77-8F7FC511240E}">
   <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -2247,8 +2268,8 @@
       <c r="F2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="41" t="s">
-        <v>132</v>
+      <c r="G2" s="39" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
@@ -2267,8 +2288,8 @@
       <c r="F3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="44" t="s">
-        <v>139</v>
+      <c r="G3" s="40" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
@@ -2325,51 +2346,51 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="G11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" t="s">
         <v>129</v>
-      </c>
-      <c r="E17" t="s">
-        <v>133</v>
       </c>
       <c r="F17" t="s">
         <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/2_작업문서/DB테이블 명세_멘토링_0731.xlsx
+++ b/Documents/2_작업문서/DB테이블 명세_멘토링_0731.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjaischool\Desktop\GAI\project01\project_Appian\Documents\2_작업문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725A131B-9A15-47A5-A8FB-ADFAE8E883C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A480B53F-E2C6-4131-90BB-0FBD595F1C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{10015527-1A9E-48C6-B0A4-EDE01B2D3F01}"/>
   </bookViews>
@@ -17,8 +17,9 @@
     <sheet name="farm" sheetId="3" r:id="rId2"/>
     <sheet name="farmAppliction" sheetId="8" r:id="rId3"/>
     <sheet name="content" sheetId="4" r:id="rId4"/>
-    <sheet name="comment" sheetId="12" r:id="rId5"/>
-    <sheet name="reply" sheetId="7" r:id="rId6"/>
+    <sheet name="content_comment" sheetId="13" r:id="rId5"/>
+    <sheet name="comment" sheetId="12" r:id="rId6"/>
+    <sheet name="reply" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="125">
   <si>
     <t>user_name</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -504,6 +505,38 @@
   </si>
   <si>
     <t>몇 개 분양</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물 번호(FK)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">content_comment_num(PK) </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_comment</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_comment_day</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_day</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -614,7 +647,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -874,15 +907,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -898,7 +922,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1028,20 +1052,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1465,7 +1492,7 @@
       <c r="I5" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="43" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1484,7 +1511,7 @@
     </row>
     <row r="7" spans="2:10" s="1" customFormat="1" ht="35.4" thickBot="1">
       <c r="B7" s="10"/>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="44" t="s">
         <v>113</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -1765,12 +1792,12 @@
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="44">
+      <c r="I7" s="45">
         <v>45125</v>
       </c>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
       <c r="M7" s="9" t="s">
         <v>88</v>
       </c>
@@ -1955,10 +1982,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F4FD11-30BD-480C-9B77-8F7FC511240E}">
-  <dimension ref="B1:H16"/>
+  <dimension ref="B1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -1974,8 +2001,8 @@
     <col min="10" max="10" width="12.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18" thickBot="1"/>
-    <row r="2" spans="2:8">
+    <row r="1" spans="2:9" ht="18" thickBot="1"/>
+    <row r="2" spans="2:9">
       <c r="B2" s="7"/>
       <c r="C2" s="2" t="s">
         <v>41</v>
@@ -1992,9 +2019,11 @@
       <c r="G2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="43"/>
-    </row>
-    <row r="3" spans="2:8">
+      <c r="H2" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
       <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
@@ -2013,13 +2042,16 @@
       <c r="G3" s="40" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="2:8">
+      <c r="H3" s="40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>92</v>
@@ -2033,8 +2065,11 @@
       <c r="G4" s="41" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="H4" s="41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
@@ -2053,24 +2088,28 @@
       <c r="G5" s="42" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" ht="57.45" customHeight="1" thickBot="1">
+      <c r="H5" s="47">
+        <v>45147</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="57.45" customHeight="1" thickBot="1">
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:9">
       <c r="B15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:9">
       <c r="C16" t="s">
         <v>100</v>
       </c>
@@ -2095,11 +2134,136 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429273FE-F8CE-4C36-9C69-DD53F000EE59}">
+  <dimension ref="B1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="18" thickBot="1"/>
+    <row r="2" spans="2:7">
+      <c r="B2" s="7"/>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="48"/>
+    </row>
+    <row r="7" spans="2:7" ht="18" thickBot="1">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD6058B-F2D5-44A1-918E-6E9EFCB968CF}">
   <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -2221,7 +2385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB483002-1D49-4724-B8D1-B3BD990D8674}">
   <dimension ref="B1:G7"/>
   <sheetViews>

--- a/Documents/2_작업문서/DB테이블 명세_멘토링_0731.xlsx
+++ b/Documents/2_작업문서/DB테이블 명세_멘토링_0731.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjaischool\Desktop\GAI\project01\project_Appian\Documents\2_작업문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A480B53F-E2C6-4131-90BB-0FBD595F1C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58C0562-7873-49B2-B64E-20E3C47F8700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{10015527-1A9E-48C6-B0A4-EDE01B2D3F01}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="127">
   <si>
     <t>user_name</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -537,6 +537,14 @@
   </si>
   <si>
     <t>content_day</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 닉네임(FK)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_nick(FK)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1058,16 +1066,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1792,12 +1800,12 @@
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="45">
+      <c r="I7" s="47">
         <v>45125</v>
       </c>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
       <c r="M7" s="9" t="s">
         <v>88</v>
       </c>
@@ -1985,7 +1993,7 @@
   <dimension ref="B1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
@@ -1993,7 +2001,7 @@
     <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.796875" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.19921875" customWidth="1"/>
     <col min="7" max="7" width="18.59765625" customWidth="1"/>
     <col min="8" max="8" width="15.19921875" bestFit="1" customWidth="1"/>
@@ -2011,7 +2019,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>30</v>
@@ -2034,7 +2042,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>29</v>
@@ -2088,7 +2096,7 @@
       <c r="G5" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="45">
         <v>45147</v>
       </c>
     </row>
@@ -2138,15 +2146,14 @@
   <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -2158,7 +2165,7 @@
         <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>117</v>
@@ -2178,7 +2185,7 @@
         <v>119</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>120</v>
@@ -2242,7 +2249,7 @@
         <v>118</v>
       </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="48"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" spans="2:7" ht="18" thickBot="1">
       <c r="B7" s="10"/>

--- a/Documents/2_작업문서/DB테이블 명세_멘토링_0731.xlsx
+++ b/Documents/2_작업문서/DB테이블 명세_멘토링_0731.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjaischool\Desktop\GAI\project01\project_Appian\Documents\2_작업문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58C0562-7873-49B2-B64E-20E3C47F8700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A9E2DE-51AC-44C8-A82D-E843604D7D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{10015527-1A9E-48C6-B0A4-EDE01B2D3F01}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{10015527-1A9E-48C6-B0A4-EDE01B2D3F01}"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
-    <sheet name="farm" sheetId="3" r:id="rId2"/>
-    <sheet name="farmAppliction" sheetId="8" r:id="rId3"/>
-    <sheet name="content" sheetId="4" r:id="rId4"/>
-    <sheet name="content_comment" sheetId="13" r:id="rId5"/>
-    <sheet name="comment" sheetId="12" r:id="rId6"/>
-    <sheet name="reply" sheetId="7" r:id="rId7"/>
+    <sheet name="notice" sheetId="14" r:id="rId2"/>
+    <sheet name="farm" sheetId="3" r:id="rId3"/>
+    <sheet name="farmAppliction" sheetId="8" r:id="rId4"/>
+    <sheet name="content" sheetId="4" r:id="rId5"/>
+    <sheet name="content_comment" sheetId="13" r:id="rId6"/>
+    <sheet name="comment" sheetId="12" r:id="rId7"/>
+    <sheet name="reply" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="133">
   <si>
     <t>user_name</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -545,6 +546,30 @@
   </si>
   <si>
     <t>user_nick(FK)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 번호(PK)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_num(PK)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_title</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_contents</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_day</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성 날짜</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1546,6 +1571,94 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD1E86E-AA8E-4E98-9151-21EC43DEA565}">
+  <dimension ref="B1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.19921875" customWidth="1"/>
+    <col min="5" max="6" width="17.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="18" thickBot="1"/>
+    <row r="2" spans="2:6">
+      <c r="B2" s="7"/>
+      <c r="C2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="2:6" ht="18" thickBot="1">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3AE791-CBEF-4ECB-BBB5-161C161B7909}">
   <dimension ref="B2:S12"/>
   <sheetViews>
@@ -1879,7 +1992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9891B4-0595-4143-8DFC-B04CDEE1B7A6}">
   <dimension ref="B1:E8"/>
   <sheetViews>
@@ -1988,7 +2101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F4FD11-30BD-480C-9B77-8F7FC511240E}">
   <dimension ref="B1:I16"/>
   <sheetViews>
@@ -2141,11 +2254,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429273FE-F8CE-4C36-9C69-DD53F000EE59}">
   <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -2265,7 +2378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACD6058B-F2D5-44A1-918E-6E9EFCB968CF}">
   <dimension ref="B1:G7"/>
   <sheetViews>
@@ -2392,7 +2505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB483002-1D49-4724-B8D1-B3BD990D8674}">
   <dimension ref="B1:G7"/>
   <sheetViews>

--- a/Documents/2_작업문서/DB테이블 명세_멘토링_0731.xlsx
+++ b/Documents/2_작업문서/DB테이블 명세_멘토링_0731.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjaischool\Desktop\GAI\project01\project_Appian\Documents\2_작업문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A9E2DE-51AC-44C8-A82D-E843604D7D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D863AA3-5792-4418-B8CC-7FC30E606A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{10015527-1A9E-48C6-B0A4-EDE01B2D3F01}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{10015527-1A9E-48C6-B0A4-EDE01B2D3F01}"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -1574,7 +1574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD1E86E-AA8E-4E98-9151-21EC43DEA565}">
   <dimension ref="B1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1662,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3AE791-CBEF-4ECB-BBB5-161C161B7909}">
   <dimension ref="B2:S12"/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
